--- a/biology/Botanique/Delairea_odorata/Delairea_odorata.xlsx
+++ b/biology/Botanique/Delairea_odorata/Delairea_odorata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delairea odorata, le séneçon grimpant[1] ou lierre d'Allemagne[1], est une espèce de plante à fleurs de la famille des Asteraceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delairea odorata, le séneçon grimpant ou lierre d'Allemagne, est une espèce de plante à fleurs de la famille des Asteraceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Senecio mikanioides Otto ex Walp[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Senecio mikanioides Otto ex Walp.</t>
         </is>
       </c>
     </row>
@@ -541,11 +555,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire d'Afrique du Sud, il est naturalisé dans de nombreuses régions au climat doux, comme la Californie[1].
-France
-En France, il se rencontre sur la Côte d'Azur (Var) et dans le Finistère[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d'Afrique du Sud, il est naturalisé dans de nombreuses régions au climat doux, comme la Californie.
 </t>
         </is>
       </c>
@@ -571,12 +585,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, il se rencontre sur la Côte d'Azur (Var) et dans le Finistère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Delairea_odorata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delairea_odorata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>On l'utilise comme plante grimpante ornementale[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On l'utilise comme plante grimpante ornementale.</t>
         </is>
       </c>
     </row>
